--- a/players_stats/JaKarr Sampson.xlsx
+++ b/players_stats/JaKarr Sampson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,88 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>1131</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.244</v>
+      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.67</v>
+      </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -659,9 +663,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>47</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -672,15 +674,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -690,90 +692,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>1160</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L3" t="n">
+        <v>317</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O3" t="n">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>126</v>
+      </c>
+      <c r="R3" t="n">
+        <v>254</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="U3" t="n">
+        <v>80</v>
+      </c>
+      <c r="V3" t="n">
+        <v>122</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6559999999999999</v>
+      </c>
+      <c r="X3" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>144</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="n">
         <v>23</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>11</v>
-      </c>
-      <c r="R3" t="n">
-        <v>23</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>12</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="X3" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>52</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2</v>
-      </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -781,9 +785,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ3" t="n">
-        <v>47</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -794,15 +796,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2004-05</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -812,90 +814,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>691</v>
       </c>
       <c r="K4" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="L4" t="n">
+        <v>202</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>80</v>
+      </c>
+      <c r="R4" t="n">
+        <v>168</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="U4" t="n">
         <v>62</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>28</v>
-      </c>
-      <c r="R4" t="n">
-        <v>62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="U4" t="n">
-        <v>23</v>
-      </c>
       <c r="V4" t="n">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="W4" t="n">
-        <v>0.59</v>
+        <v>0.639</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="Z4" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AA4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="n">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -903,9 +907,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>47</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -916,7 +918,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -924,7 +926,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -934,90 +936,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>469</v>
+      </c>
+      <c r="K5" t="n">
+        <v>54</v>
+      </c>
+      <c r="L5" t="n">
+        <v>115</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>46</v>
+      </c>
+      <c r="R5" t="n">
+        <v>86</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="U5" t="n">
+        <v>18</v>
+      </c>
+      <c r="V5" t="n">
+        <v>25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1025,9 +1029,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ5" t="n">
-        <v>47</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1038,15 +1040,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1056,92 +1058,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>125</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
+        <v>44</v>
+      </c>
+      <c r="L6" t="n">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5429999999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>39</v>
+      </c>
+      <c r="R6" t="n">
+        <v>71</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5489999999999999</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" t="n">
+        <v>16</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="n">
         <v>9</v>
       </c>
-      <c r="L6" t="n">
-        <v>14</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>13</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.6920000000000001</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>14</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
         <v>48</v>
       </c>
-      <c r="AA6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 211</t>
+          <t xml:space="preserve"> 201</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106 </t>
+          <t xml:space="preserve"> 97 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1149,9 +1151,7 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ6" t="n">
-        <v>47</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1162,114 +1162,356 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>127</v>
+      </c>
+      <c r="K7" t="n">
+        <v>29</v>
+      </c>
+      <c r="L7" t="n">
+        <v>54</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>40</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="U7" t="n">
+        <v>17</v>
+      </c>
+      <c r="V7" t="n">
+        <v>21</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>166</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>41</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>21</v>
+      </c>
+      <c r="R8" t="n">
+        <v>31</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>72</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>631</v>
-      </c>
-      <c r="K7" t="n">
-        <v>53</v>
-      </c>
-      <c r="L7" t="n">
-        <v>108</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>107</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="U7" t="n">
-        <v>36</v>
-      </c>
-      <c r="V7" t="n">
-        <v>67</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="X7" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>242</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>33</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>91</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>142</v>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 211</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 106 </t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>182</v>
+      </c>
+      <c r="I9" t="n">
+        <v>85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2928</v>
+      </c>
+      <c r="K9" t="n">
+        <v>382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>839</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="N9" t="n">
+        <v>57</v>
+      </c>
+      <c r="O9" t="n">
+        <v>224</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>325</v>
+      </c>
+      <c r="R9" t="n">
+        <v>615</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="U9" t="n">
+        <v>172</v>
+      </c>
+      <c r="V9" t="n">
+        <v>260</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="X9" t="n">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>373</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>487</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>78</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>164</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>356</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>993</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ7" t="n">
-        <v>47</v>
-      </c>
+      <c r="AJ9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
